--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-0.1/percents/scores-5.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-0.1/percents/scores-5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,6 +46,9 @@
     <t>hate</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>boring</t>
   </si>
   <si>
@@ -55,24 +58,12 @@
     <t>evil</t>
   </si>
   <si>
-    <t>annoying</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
@@ -82,21 +73,12 @@
     <t>creepy</t>
   </si>
   <si>
-    <t>frustrating</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
     <t>0.95-negative</t>
   </si>
   <si>
@@ -118,49 +100,28 @@
     <t>brilliant</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>relevant</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>beautiful</t>
+    <t>online</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>dil</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>social</t>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -539,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS23"/>
+  <dimension ref="A1:BS16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,28 +508,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AB1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AK1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AT1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="BC1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="BL1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -770,13 +731,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02071875298264155</v>
+        <v>0.022002200220022</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -788,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.01370715830944386</v>
+        <v>0.01149650356350293</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -812,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.02456287316645329</v>
+        <v>0.02612761276127613</v>
       </c>
       <c r="U3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -836,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AC3">
-        <v>0.1604848512069348</v>
+        <v>0.01348997087400733</v>
       </c>
       <c r="AD3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -860,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.03018120266587044</v>
+        <v>0.03215706186003216</v>
       </c>
       <c r="AM3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -884,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AU3">
-        <v>0.1251254600200736</v>
+        <v>0.1621949248424115</v>
       </c>
       <c r="AV3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -908,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.03917052986493788</v>
+        <v>0.04180418041804181</v>
       </c>
       <c r="BE3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BF3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -932,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="BM3">
-        <v>0.10686792759129</v>
+        <v>0.1397483409463069</v>
       </c>
       <c r="BN3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BO3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -956,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -964,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.004595293348874423</v>
+        <v>0.004620664810695692</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -985,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.007986334510816859</v>
+        <v>0.009222233000755696</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1006,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.005416264851354819</v>
+        <v>0.005446507685788034</v>
       </c>
       <c r="U4">
         <v>3</v>
@@ -1033,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC4">
-        <v>0.09573790187882648</v>
+        <v>0.01091086991148429</v>
       </c>
       <c r="AD4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1054,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.006616146278056938</v>
+        <v>0.006653508810922996</v>
       </c>
       <c r="AM4">
         <v>3</v>
@@ -1081,16 +1042,16 @@
         <v>0</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AU4">
-        <v>0.08103044496487119</v>
+        <v>0.1355953727862569</v>
       </c>
       <c r="AV4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1102,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.008535956560780327</v>
+        <v>0.008584710611138935</v>
       </c>
       <c r="BE4">
         <v>3</v>
@@ -1129,16 +1090,16 @@
         <v>0</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BM4">
-        <v>0.07343636988217422</v>
+        <v>0.1208739119193312</v>
       </c>
       <c r="BN4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BO4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1150,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1158,13 +1119,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.003443617660748199</v>
+        <v>0.004575155447144141</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1176,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.006853579154721931</v>
+        <v>0.0069138304153448</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -1206,13 +1167,13 @@
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.004048649971704928</v>
+        <v>0.005230338208918168</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1224,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AC5">
-        <v>0.08330502788905012</v>
+        <v>0.008169641841308849</v>
       </c>
       <c r="AD5">
         <v>5</v>
@@ -1254,13 +1215,13 @@
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.004932927964641687</v>
+        <v>0.006187913014587899</v>
       </c>
       <c r="AM5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1272,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AU5">
-        <v>0.07282703245232519</v>
+        <v>0.1059248655013969</v>
       </c>
       <c r="AV5">
         <v>5</v>
@@ -1302,13 +1263,13 @@
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.006347772753340502</v>
+        <v>0.007720032703659471</v>
       </c>
       <c r="BE5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1320,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="BM5">
-        <v>0.06741680520990206</v>
+        <v>0.09872446781004912</v>
       </c>
       <c r="BN5">
         <v>5</v>
@@ -1352,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003443617660748199</v>
+        <v>0.003462654272799797</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1373,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.005709414394996531</v>
+        <v>0.005759629122639351</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -1400,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.004048649971704928</v>
+        <v>0.004071370172036659</v>
       </c>
       <c r="U6">
         <v>2</v>
@@ -1421,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AC6">
-        <v>0.07035563802342847</v>
+        <v>0.00679902780622113</v>
       </c>
       <c r="AD6">
         <v>4</v>
@@ -1448,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.004932927964641687</v>
+        <v>0.004961031870921303</v>
       </c>
       <c r="AM6">
         <v>2</v>
@@ -1469,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="AU6">
-        <v>0.06400802944128471</v>
+        <v>0.09108961185896697</v>
       </c>
       <c r="AV6">
         <v>4</v>
@@ -1496,7 +1457,7 @@
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.006347772753340502</v>
+        <v>0.006384490589136735</v>
       </c>
       <c r="BE6">
         <v>2</v>
@@ -1517,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="BM6">
-        <v>0.06073049366807892</v>
+        <v>0.08764974575540808</v>
       </c>
       <c r="BN6">
         <v>4</v>
@@ -1546,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003443617660748199</v>
+        <v>0.003462654272799797</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1567,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.005686595587735586</v>
+        <v>0.005736874440863576</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -1594,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.004048649971704928</v>
+        <v>0.004071370172036659</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1615,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AC7">
-        <v>0.06932260627173788</v>
+        <v>0.006690943067786197</v>
       </c>
       <c r="AD7">
         <v>4</v>
@@ -1642,7 +1603,7 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.004932927964641687</v>
+        <v>0.004961031870921303</v>
       </c>
       <c r="AM7">
         <v>2</v>
@@ -1663,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AU7">
-        <v>0.06277684844429575</v>
+        <v>0.08904230837316339</v>
       </c>
       <c r="AV7">
         <v>4</v>
@@ -1690,7 +1651,7 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.006347772753340502</v>
+        <v>0.006384490589136735</v>
       </c>
       <c r="BE7">
         <v>2</v>
@@ -1711,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="BM7">
-        <v>0.05939699992897696</v>
+        <v>0.08546640236720388</v>
       </c>
       <c r="BN7">
         <v>4</v>
@@ -1740,7 +1701,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003443617660748199</v>
+        <v>0.003462654272799797</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1761,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.00456524963527113</v>
+        <v>0.004605427829933903</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1788,7 +1749,7 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.004048649971704928</v>
+        <v>0.004071370172036659</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1809,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AC8">
-        <v>0.05740624815780682</v>
+        <v>0.005428413771133411</v>
       </c>
       <c r="AD8">
         <v>3</v>
@@ -1836,7 +1797,7 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004932927964641687</v>
+        <v>0.004961031870921303</v>
       </c>
       <c r="AM8">
         <v>2</v>
@@ -1857,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AU8">
-        <v>0.05518902643024423</v>
+        <v>0.07625435821653699</v>
       </c>
       <c r="AV8">
         <v>3</v>
@@ -1884,7 +1845,7 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.006347772753340502</v>
+        <v>0.006384490589136735</v>
       </c>
       <c r="BE8">
         <v>2</v>
@@ -1905,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="BM8">
-        <v>0.05404418212625577</v>
+        <v>0.07657502370076703</v>
       </c>
       <c r="BN8">
         <v>3</v>
@@ -1934,7 +1895,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.003443617660748199</v>
+        <v>0.003462654272799797</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1955,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.003421084875545729</v>
+        <v>0.003451226537228456</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -1982,7 +1943,7 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.004048649971704928</v>
+        <v>0.004071370172036659</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -2003,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AC9">
-        <v>0.04445685829218515</v>
+        <v>0.004057799736045691</v>
       </c>
       <c r="AD9">
         <v>2</v>
@@ -2030,7 +1991,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004932927964641687</v>
+        <v>0.004961031870921303</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -2051,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AU9">
-        <v>0.04637002341920375</v>
+        <v>0.061419104574107</v>
       </c>
       <c r="AV9">
         <v>2</v>
@@ -2078,7 +2039,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.006347772753340502</v>
+        <v>0.006384490589136735</v>
       </c>
       <c r="BE9">
         <v>2</v>
@@ -2099,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="BM9">
-        <v>0.04735787058443262</v>
+        <v>0.06550030164612598</v>
       </c>
       <c r="BN9">
         <v>2</v>
@@ -2128,7 +2089,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.003443617660748199</v>
+        <v>0.003462654272799797</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2149,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.003421084875545729</v>
+        <v>0.002768586083955194</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -2170,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.004048649971704928</v>
+        <v>0.004071370172036659</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2197,16 +2158,16 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC10">
-        <v>0.04445685829218515</v>
+        <v>0.002687185700957972</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2224,7 +2185,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.004932927964641687</v>
+        <v>0.004961031870921303</v>
       </c>
       <c r="AM10">
         <v>2</v>
@@ -2245,16 +2206,16 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AU10">
-        <v>0.04637002341920375</v>
+        <v>0.04658385093167702</v>
       </c>
       <c r="AV10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -2272,7 +2233,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.006347772753340502</v>
+        <v>0.006384490589136735</v>
       </c>
       <c r="BE10">
         <v>2</v>
@@ -2293,16 +2254,16 @@
         <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BM10">
-        <v>0.04735787058443262</v>
+        <v>0.05442557959148495</v>
       </c>
       <c r="BN10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -2322,13 +2283,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.003386570642595837</v>
+        <v>0.002304643734903902</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2340,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.002276920115820329</v>
+        <v>0.002297025244523008</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2370,13 +2331,13 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.003777676635481213</v>
+        <v>0.002696232658285284</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2388,13 +2349,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AC11">
-        <v>0.0315074684265635</v>
+        <v>0.002687185700957972</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -2418,13 +2379,13 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.004349293086621376</v>
+        <v>0.00326855493091961</v>
       </c>
       <c r="AM11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -2436,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AU11">
-        <v>0.03755102040816326</v>
+        <v>0.04658385093167702</v>
       </c>
       <c r="AV11">
         <v>1</v>
@@ -2466,13 +2427,13 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.005263879408445639</v>
+        <v>0.004184270567134534</v>
       </c>
       <c r="BE11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG11">
         <v>0</v>
@@ -2484,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BM11">
-        <v>0.04067155904260947</v>
+        <v>0.05442557959148495</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2516,7 +2477,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002291941972621975</v>
+        <v>0.002304643734903902</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2537,10 +2498,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.002276920115820329</v>
+        <v>0.002297025244523008</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2564,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002681035092055038</v>
+        <v>0.002696232658285284</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -2585,10 +2546,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AC12">
-        <v>0.0315074684265635</v>
+        <v>0.002687185700957972</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2612,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003249709651226437</v>
+        <v>0.00326855493091961</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -2633,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AU12">
-        <v>0.03755102040816326</v>
+        <v>0.04658385093167702</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2660,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004159588945900677</v>
+        <v>0.004184270567134534</v>
       </c>
       <c r="BE12">
         <v>1</v>
@@ -2681,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BM12">
-        <v>0.04067155904260947</v>
+        <v>0.05442557959148495</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2710,7 +2671,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002291941972621975</v>
+        <v>0.002304643734903902</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2731,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.002276920115820329</v>
+        <v>0.002297025244523008</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2758,7 +2719,7 @@
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002681035092055038</v>
+        <v>0.002696232658285284</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2779,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AC13">
-        <v>0.0315074684265635</v>
+        <v>0.002687185700957972</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2806,7 +2767,7 @@
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003249709651226437</v>
+        <v>0.00326855493091961</v>
       </c>
       <c r="AM13">
         <v>1</v>
@@ -2827,10 +2788,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AU13">
-        <v>0.03755102040816326</v>
+        <v>0.04658385093167702</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2854,7 +2815,7 @@
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.004159588945900677</v>
+        <v>0.004184270567134534</v>
       </c>
       <c r="BE13">
         <v>1</v>
@@ -2875,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="BM13">
-        <v>0.04067155904260947</v>
+        <v>0.05442557959148495</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2904,7 +2865,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002291941972621975</v>
+        <v>0.002304643734903902</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2925,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.002276920115820329</v>
+        <v>0.002297025244523008</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2952,7 +2913,7 @@
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002681035092055038</v>
+        <v>0.002696232658285284</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -2973,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AC14">
-        <v>0.0315074684265635</v>
+        <v>0.002687185700957972</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3000,7 +2961,7 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.003249709651226437</v>
+        <v>0.00326855493091961</v>
       </c>
       <c r="AM14">
         <v>1</v>
@@ -3021,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AU14">
-        <v>0.03755102040816326</v>
+        <v>0.04658385093167702</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3048,7 +3009,7 @@
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.004159588945900677</v>
+        <v>0.004184270567134534</v>
       </c>
       <c r="BE14">
         <v>1</v>
@@ -3069,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="BM14">
-        <v>0.04067155904260947</v>
+        <v>0.05442557959148495</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3098,7 +3059,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002291941972621975</v>
+        <v>0.002304643734903902</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3119,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.002276920115820329</v>
+        <v>0.002297025244523008</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3146,7 +3107,7 @@
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002681035092055038</v>
+        <v>0.002696232658285284</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -3167,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC15">
-        <v>0.0315074684265635</v>
+        <v>0.002633143331740505</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3188,13 +3149,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.003249709651226437</v>
+        <v>0.00326855493091961</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -3215,10 +3176,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AU15">
-        <v>0.03755102040816326</v>
+        <v>0.04556019918877523</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3236,13 +3197,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.004159588945900677</v>
+        <v>0.004184270567134534</v>
       </c>
       <c r="BE15">
         <v>1</v>
@@ -3263,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="BM15">
-        <v>0.04067155904260947</v>
+        <v>0.05333390789738286</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3284,39 +3245,15 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:71">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.002291941972621975</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.002276920115820329</v>
+        <v>0.00228564790363512</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3334,43 +3271,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T16">
-        <v>0.002681035092055038</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC16">
-        <v>0.0315074684265635</v>
+        <v>0.0008152575829977024</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -3382,43 +3295,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL16">
-        <v>0.003249709651226437</v>
-      </c>
-      <c r="AM16">
-        <v>1</v>
-      </c>
-      <c r="AN16">
-        <v>1</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>1</v>
-      </c>
-      <c r="AQ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AU16">
-        <v>0.03755102040816326</v>
+        <v>0</v>
       </c>
       <c r="AV16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX16">
         <v>1</v>
@@ -3430,43 +3319,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BD16">
-        <v>0.004159588945900677</v>
-      </c>
-      <c r="BE16">
-        <v>1</v>
-      </c>
-      <c r="BF16">
-        <v>1</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>1</v>
-      </c>
-      <c r="BI16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BM16">
-        <v>0.04067155904260947</v>
+        <v>0</v>
       </c>
       <c r="BN16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP16">
         <v>1</v>
@@ -3478,1173 +3343,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:71">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.002291941972621975</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>0.002276920115820329</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T17">
-        <v>0.002681035092055038</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC17">
-        <v>0.0315074684265635</v>
-      </c>
-      <c r="AD17">
-        <v>1</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL17">
-        <v>0.003249709651226437</v>
-      </c>
-      <c r="AM17">
-        <v>1</v>
-      </c>
-      <c r="AN17">
-        <v>1</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>1</v>
-      </c>
-      <c r="AQ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU17">
-        <v>0.03755102040816326</v>
-      </c>
-      <c r="AV17">
-        <v>1</v>
-      </c>
-      <c r="AW17">
-        <v>1</v>
-      </c>
-      <c r="AX17">
-        <v>1</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BC17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BD17">
-        <v>0.004159588945900677</v>
-      </c>
-      <c r="BE17">
-        <v>1</v>
-      </c>
-      <c r="BF17">
-        <v>1</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>1</v>
-      </c>
-      <c r="BI17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>0</v>
-      </c>
-      <c r="BL17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM17">
-        <v>0.04067155904260947</v>
-      </c>
-      <c r="BN17">
-        <v>1</v>
-      </c>
-      <c r="BO17">
-        <v>1</v>
-      </c>
-      <c r="BP17">
-        <v>1</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:71">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.002291941972621975</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>0.002265510712189857</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18">
-        <v>0.002681035092055038</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC18">
-        <v>0.0309909525507182</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL18">
-        <v>0.003249709651226437</v>
-      </c>
-      <c r="AM18">
-        <v>1</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>1</v>
-      </c>
-      <c r="AQ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU18">
-        <v>0.03693542990966878</v>
-      </c>
-      <c r="AV18">
-        <v>1</v>
-      </c>
-      <c r="AW18">
-        <v>1</v>
-      </c>
-      <c r="AX18">
-        <v>1</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>1</v>
-      </c>
-      <c r="BC18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BD18">
-        <v>0.004159588945900677</v>
-      </c>
-      <c r="BE18">
-        <v>1</v>
-      </c>
-      <c r="BF18">
-        <v>1</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
-      <c r="BH18">
-        <v>1</v>
-      </c>
-      <c r="BI18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ18">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BM18">
-        <v>0.04000481217305849</v>
-      </c>
-      <c r="BN18">
-        <v>1</v>
-      </c>
-      <c r="BO18">
-        <v>1</v>
-      </c>
-      <c r="BP18">
-        <v>1</v>
-      </c>
-      <c r="BQ18">
-        <v>0</v>
-      </c>
-      <c r="BR18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:71">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.002291941972621975</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19">
-        <v>0.002265510712189857</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19">
-        <v>0.002681035092055038</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC19">
-        <v>0.0309909525507182</v>
-      </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL19">
-        <v>0.003249709651226437</v>
-      </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>1</v>
-      </c>
-      <c r="AQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU19">
-        <v>0.03693542990966878</v>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>1</v>
-      </c>
-      <c r="AX19">
-        <v>1</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>1</v>
-      </c>
-      <c r="BC19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD19">
-        <v>0.004159588945900677</v>
-      </c>
-      <c r="BE19">
-        <v>1</v>
-      </c>
-      <c r="BF19">
-        <v>1</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>1</v>
-      </c>
-      <c r="BI19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <v>0</v>
-      </c>
-      <c r="BL19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM19">
-        <v>0.04000481217305849</v>
-      </c>
-      <c r="BN19">
-        <v>1</v>
-      </c>
-      <c r="BO19">
-        <v>1</v>
-      </c>
-      <c r="BP19">
-        <v>1</v>
-      </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
-      <c r="BR19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:71">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.002280532568991503</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.002265510712189857</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20">
-        <v>0.002626840424810295</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC20">
-        <v>0.0309909525507182</v>
-      </c>
-      <c r="AD20">
-        <v>1</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL20">
-        <v>0.003132982675622376</v>
-      </c>
-      <c r="AM20">
-        <v>1</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-      <c r="AQ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU20">
-        <v>0.03693542990966878</v>
-      </c>
-      <c r="AV20">
-        <v>1</v>
-      </c>
-      <c r="AW20">
-        <v>1</v>
-      </c>
-      <c r="AX20">
-        <v>1</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>1</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD20">
-        <v>0.003942810276921705</v>
-      </c>
-      <c r="BE20">
-        <v>1</v>
-      </c>
-      <c r="BF20">
-        <v>1</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>1</v>
-      </c>
-      <c r="BI20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>1</v>
-      </c>
-      <c r="BL20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BM20">
-        <v>0.04000481217305849</v>
-      </c>
-      <c r="BN20">
-        <v>1</v>
-      </c>
-      <c r="BO20">
-        <v>1</v>
-      </c>
-      <c r="BP20">
-        <v>1</v>
-      </c>
-      <c r="BQ20">
-        <v>0</v>
-      </c>
-      <c r="BR20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:71">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.002280532568991503</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.002254101308559384</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21">
-        <v>0.002626840424810295</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC21">
-        <v>0.03047443667487289</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>2</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL21">
-        <v>0.003132982675622376</v>
-      </c>
-      <c r="AM21">
-        <v>1</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>1</v>
-      </c>
-      <c r="AQ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU21">
-        <v>0.03631983941117431</v>
-      </c>
-      <c r="AV21">
-        <v>1</v>
-      </c>
-      <c r="AW21">
-        <v>1</v>
-      </c>
-      <c r="AX21">
-        <v>1</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>2</v>
-      </c>
-      <c r="BC21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD21">
-        <v>0.003942810276921705</v>
-      </c>
-      <c r="BE21">
-        <v>1</v>
-      </c>
-      <c r="BF21">
-        <v>1</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21">
-        <v>1</v>
-      </c>
-      <c r="BI21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ21">
-        <v>1</v>
-      </c>
-      <c r="BL21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BM21">
-        <v>0.03933806530350752</v>
-      </c>
-      <c r="BN21">
-        <v>1</v>
-      </c>
-      <c r="BO21">
-        <v>1</v>
-      </c>
-      <c r="BP21">
-        <v>1</v>
-      </c>
-      <c r="BQ21">
-        <v>0</v>
-      </c>
-      <c r="BR21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:71">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.002254101308559384</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC22">
-        <v>0.03047443667487289</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>2</v>
-      </c>
-      <c r="AT22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU22">
-        <v>0.03631983941117431</v>
-      </c>
-      <c r="AV22">
-        <v>1</v>
-      </c>
-      <c r="AW22">
-        <v>1</v>
-      </c>
-      <c r="AX22">
-        <v>1</v>
-      </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA22">
-        <v>2</v>
-      </c>
-      <c r="BL22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BM22">
-        <v>0.03933806530350752</v>
-      </c>
-      <c r="BN22">
-        <v>1</v>
-      </c>
-      <c r="BO22">
-        <v>1</v>
-      </c>
-      <c r="BP22">
-        <v>1</v>
-      </c>
-      <c r="BQ22">
-        <v>0</v>
-      </c>
-      <c r="BR22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:71">
-      <c r="J23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23">
-        <v>0.001580946494361522</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>61</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>1</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-      <c r="AF23">
-        <v>1</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>61</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>1</v>
-      </c>
-      <c r="AW23">
-        <v>1</v>
-      </c>
-      <c r="AX23">
-        <v>1</v>
-      </c>
-      <c r="AY23">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <v>61</v>
-      </c>
-      <c r="BL23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BM23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>1</v>
-      </c>
-      <c r="BO23">
-        <v>1</v>
-      </c>
-      <c r="BP23">
-        <v>1</v>
-      </c>
-      <c r="BQ23">
-        <v>0</v>
-      </c>
-      <c r="BR23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS23">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
